--- a/case-4-b/data/factor_calibrations.xlsx
+++ b/case-4-b/data/factor_calibrations.xlsx
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.02929112494904965</v>
+        <v>0.02740343009721929</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7313343969392503</v>
+        <v>0.7359555017005743</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1399157664198633</v>
+        <v>0.1379243080544355</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.1975480603993206</v>
+        <v>-0.2005788112835819</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4722255023382194</v>
+        <v>0.4677137264635974</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.08574957142095938</v>
+        <v>0.08562847330218207</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2240953730967133</v>
+        <v>0.2137528799877317</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.5111984402693525</v>
+        <v>0.5315579213459144</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.109054377289056</v>
+        <v>0.1060040887022268</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.001598993841618725</v>
+        <v>0.0007488884210189217</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.1229323650546653</v>
+        <v>0.1248656248575518</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -568,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1194784072817963</v>
+        <v>0.1208524590570673</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.09624482418299547</v>
+        <v>0.07148026440989404</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.00518002467289855</v>
+        <v>0.003675467558952779</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.1249640680970037</v>
+        <v>0.1293818980180041</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1664328854378541</v>
+        <v>0.1646093031069375</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -626,7 +626,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>-0.09845817683463333</v>
+        <v>-0.09195042479915344</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.08490371048677589</v>
+        <v>0.04362899459856739</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.02904933125385863</v>
+        <v>0.02698468728091469</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7423319563498452</v>
+        <v>0.7439769952421464</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1216020740534545</v>
+        <v>0.1191540607285704</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1626946932281555</v>
+        <v>0.1633803094822218</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.09208960394283977</v>
+        <v>-0.08203817320811856</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1.040335056944844E-10</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/case-4-b/data/factor_calibrations.xlsx
+++ b/case-4-b/data/factor_calibrations.xlsx
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.02740343009721929</v>
+        <v>0.03005027436747393</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7359555017005743</v>
+        <v>0.7326361358633129</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1379243080544355</v>
+        <v>0.1409879752221953</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.2005788112835819</v>
+        <v>-0.1975709897101832</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.4677137264635974</v>
+        <v>0.4713572626792478</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.08562847330218207</v>
+        <v>0.08614862325455526</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2137528799877317</v>
+        <v>0.2213492672759159</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.5315579213459144</v>
+        <v>0.5201949097290097</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.1060040887022268</v>
+        <v>0.1108289563811776</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0007488884210189217</v>
+        <v>0.001720135121303271</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.1248656248575518</v>
+        <v>0.1241085095164853</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -568,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1208524590570673</v>
+        <v>0.1170763193941317</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.07148026440989404</v>
+        <v>0.09727026973382057</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.003675467558952779</v>
+        <v>0.005194563981180916</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.1293818980180041</v>
+        <v>0.1270243165423624</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1646093031069375</v>
+        <v>0.1624317820460614</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -626,7 +626,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>-0.09195042479915344</v>
+        <v>-0.09565228952854361</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.04362899459856739</v>
+        <v>0.08052319728702199</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.02698468728091469</v>
+        <v>0.02994676599299398</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7439769952421464</v>
+        <v>0.742207539510004</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1191540607285704</v>
+        <v>0.1226048382404183</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1633803094822218</v>
+        <v>0.1601747738778287</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.08203817320811856</v>
+        <v>-0.08788668274862838</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>1.040335056944844E-10</v>
+        <v>2.672235201090382E-13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
